--- a/文档/立库管理系统功能V1.2.xlsx
+++ b/文档/立库管理系统功能V1.2.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="129">
   <si>
     <t xml:space="preserve">立库管理系统标准功能列表 </t>
   </si>
@@ -167,12 +167,6 @@
   </si>
   <si>
     <t>任务管理</t>
-  </si>
-  <si>
-    <t>无计划配盘入库</t>
-  </si>
-  <si>
-    <t>无计划出库</t>
   </si>
   <si>
     <t>盘点管理</t>
@@ -427,6 +421,22 @@
   </si>
   <si>
     <t>库存查询，配盘管理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>无计划下架</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>无计划配盘</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询出库存，指定货位下架，可以批量，有图形化界面方式，和列表方式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部配置的是计划code为-1的计划配盘</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -595,6 +605,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -604,6 +647,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -617,56 +669,42 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -962,8 +1000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:E70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -975,12 +1013,12 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:5" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="14"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="8"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
@@ -997,11 +1035,11 @@
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="21" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>6</v>
@@ -1009,7 +1047,7 @@
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="8"/>
+      <c r="B7" s="22"/>
       <c r="C7" s="1" t="s">
         <v>7</v>
       </c>
@@ -1019,7 +1057,7 @@
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B8" s="8"/>
+      <c r="B8" s="22"/>
       <c r="C8" s="1" t="s">
         <v>9</v>
       </c>
@@ -1029,7 +1067,7 @@
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B9" s="9"/>
+      <c r="B9" s="23"/>
       <c r="C9" s="1" t="s">
         <v>11</v>
       </c>
@@ -1039,7 +1077,7 @@
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="21" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -1049,11 +1087,11 @@
         <v>15</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B11" s="8"/>
+      <c r="B11" s="22"/>
       <c r="C11" s="1" t="s">
         <v>16</v>
       </c>
@@ -1061,43 +1099,43 @@
         <v>17</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B12" s="8"/>
+      <c r="B12" s="22"/>
       <c r="C12" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="18" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B13" s="8"/>
+      <c r="B13" s="22"/>
       <c r="C13" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="21"/>
+      <c r="E13" s="18"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B14" s="8"/>
+      <c r="B14" s="22"/>
       <c r="C14" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="21"/>
+      <c r="E14" s="18"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B15" s="8"/>
+      <c r="B15" s="22"/>
       <c r="C15" s="1" t="s">
         <v>25</v>
       </c>
@@ -1107,77 +1145,79 @@
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B17" s="18"/>
+      <c r="C17" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="D17" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B18" s="18"/>
+      <c r="C18" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B17" s="21"/>
-      <c r="C17" s="25" t="s">
+      <c r="D18" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B19" s="18"/>
+      <c r="C19" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B18" s="21"/>
-      <c r="C18" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B19" s="21"/>
-      <c r="C19" s="25" t="s">
+      <c r="D19" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B20" s="21"/>
-      <c r="C20" s="25"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="5"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B21" s="21"/>
-      <c r="C21" s="25"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="5"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B22" s="21"/>
-      <c r="C22" s="25"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="5"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B23" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="C23" s="24" t="s">
-        <v>50</v>
+      <c r="B23" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>126</v>
       </c>
       <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
+      <c r="E23" s="1" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B24" s="8"/>
+      <c r="B24" s="22"/>
       <c r="C24" s="1" t="s">
         <v>28</v>
       </c>
@@ -1189,9 +1229,9 @@
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B25" s="8"/>
+      <c r="B25" s="22"/>
       <c r="C25" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>31</v>
@@ -1199,7 +1239,7 @@
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B26" s="8"/>
+      <c r="B26" s="22"/>
       <c r="C26" s="1" t="s">
         <v>32</v>
       </c>
@@ -1209,7 +1249,7 @@
       <c r="E26" s="1"/>
     </row>
     <row r="27" spans="2:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="B27" s="9"/>
+      <c r="B27" s="23"/>
       <c r="C27" s="1" t="s">
         <v>34</v>
       </c>
@@ -1219,59 +1259,61 @@
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B28" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="C28" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="D28" s="24"/>
-      <c r="E28" s="1"/>
+      <c r="B28" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="1" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B29" s="8"/>
-      <c r="C29" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="D29" s="24"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D29" s="4"/>
       <c r="E29" s="1"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B30" s="8"/>
-      <c r="C30" s="24" t="s">
+      <c r="B30" s="22"/>
+      <c r="C30" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="24" t="s">
+      <c r="D30" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E30" s="1"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B31" s="8"/>
-      <c r="C31" s="24" t="s">
+      <c r="B31" s="22"/>
+      <c r="C31" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="24" t="s">
+      <c r="D31" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B32" s="8"/>
+      <c r="B32" s="22"/>
       <c r="C32" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B33" s="9"/>
+      <c r="B33" s="23"/>
       <c r="C33" s="1" t="s">
         <v>41</v>
       </c>
@@ -1281,7 +1323,7 @@
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="21" t="s">
         <v>43</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -1291,21 +1333,21 @@
         <v>45</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B35" s="8"/>
+      <c r="B35" s="22"/>
       <c r="C35" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B36" s="8"/>
+      <c r="B36" s="22"/>
       <c r="C36" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>46</v>
@@ -1313,7 +1355,7 @@
       <c r="E36" s="1"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B37" s="9"/>
+      <c r="B37" s="23"/>
       <c r="C37" s="1" t="s">
         <v>47</v>
       </c>
@@ -1323,136 +1365,136 @@
       <c r="E37" s="1"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="E38" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D38" s="1" t="s">
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B39" s="23"/>
+      <c r="C39" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B39" s="9"/>
-      <c r="C39" s="1" t="s">
+      <c r="E39" s="1"/>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B40" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D40" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E39" s="1"/>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B40" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C40" s="1" t="s">
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B41" s="22"/>
+      <c r="C41" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E40" s="1"/>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B41" s="8"/>
-      <c r="C41" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B42" s="8"/>
+      <c r="B42" s="22"/>
       <c r="C42" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B43" s="23"/>
+      <c r="C43" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E42" s="1"/>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B43" s="9"/>
-      <c r="C43" s="1" t="s">
+      <c r="E43" s="1"/>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B44" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E43" s="1"/>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B44" s="7" t="s">
+      <c r="D44" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="E44" s="1"/>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B45" s="9"/>
+      <c r="B45" s="23"/>
       <c r="C45" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D45" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E45" s="1"/>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B46" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E45" s="1"/>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B46" s="7" t="s">
+      <c r="D46" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="E46" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="D46" s="1" t="s">
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B47" s="23"/>
+      <c r="C47" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E46" s="22" t="s">
+      <c r="D47" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B47" s="9"/>
-      <c r="C47" s="1" t="s">
+      <c r="E47" s="20"/>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B48" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="C48" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E47" s="23"/>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B48" s="7" t="s">
+      <c r="D48" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B49" s="9"/>
+      <c r="B49" s="23"/>
       <c r="C49" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>27</v>
@@ -1460,31 +1502,31 @@
     </row>
     <row r="50" spans="2:5" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B50" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B51" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
     </row>
     <row r="56" spans="2:5" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B56" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="C56" s="13"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="14"/>
+      <c r="B56" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="8"/>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B57" s="1" t="s">
@@ -1501,119 +1543,111 @@
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B58" s="7" t="s">
+      <c r="B58" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="E58" s="1"/>
+    </row>
+    <row r="59" spans="2:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="B59" s="24"/>
+      <c r="C59" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D59" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E58" s="1"/>
-    </row>
-    <row r="59" spans="2:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="B59" s="10"/>
-      <c r="C59" s="1" t="s">
+      <c r="E59" s="1"/>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B60" s="25"/>
+      <c r="C60" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="D60" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E59" s="1"/>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B60" s="11"/>
-      <c r="C60" s="1" t="s">
+      <c r="E60" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="61" spans="2:5" ht="108" x14ac:dyDescent="0.15">
       <c r="B61" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D61" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="E61" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D61" s="3" t="s">
+    </row>
+    <row r="64" spans="2:5" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B64" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="C64" s="10"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="11"/>
+    </row>
+    <row r="65" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B65" s="12" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="64" spans="2:5" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B64" s="15" t="s">
+      <c r="C65" s="13"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="14"/>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B66" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="C64" s="16"/>
-      <c r="D64" s="16"/>
-      <c r="E64" s="17"/>
-    </row>
-    <row r="65" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B65" s="18" t="s">
+      <c r="C66" s="16"/>
+      <c r="D66" s="16"/>
+      <c r="E66" s="17"/>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B67" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="C65" s="19"/>
-      <c r="D65" s="19"/>
-      <c r="E65" s="20"/>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B66" s="4" t="s">
+      <c r="C67" s="16"/>
+      <c r="D67" s="16"/>
+      <c r="E67" s="17"/>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B68" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="C66" s="5"/>
-      <c r="D66" s="5"/>
-      <c r="E66" s="6"/>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B67" s="4" t="s">
+      <c r="C68" s="16"/>
+      <c r="D68" s="16"/>
+      <c r="E68" s="17"/>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B69" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="6"/>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B68" s="4" t="s">
+      <c r="C69" s="16"/>
+      <c r="D69" s="16"/>
+      <c r="E69" s="17"/>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B70" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="C68" s="5"/>
-      <c r="D68" s="5"/>
-      <c r="E68" s="6"/>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B69" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
-      <c r="E69" s="6"/>
-    </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B70" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C70" s="5"/>
-      <c r="D70" s="5"/>
-      <c r="E70" s="6"/>
+      <c r="C70" s="16"/>
+      <c r="D70" s="16"/>
+      <c r="E70" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B56:E56"/>
-    <mergeCell ref="B64:E64"/>
-    <mergeCell ref="B65:E65"/>
-    <mergeCell ref="B66:E66"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="B16:B22"/>
     <mergeCell ref="B67:E67"/>
     <mergeCell ref="B68:E68"/>
     <mergeCell ref="B69:E69"/>
@@ -1629,6 +1663,14 @@
     <mergeCell ref="B46:B47"/>
     <mergeCell ref="B48:B49"/>
     <mergeCell ref="B58:B60"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B56:E56"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="B65:E65"/>
+    <mergeCell ref="B66:E66"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="B16:B22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
